--- a/food/fd3.xlsx
+++ b/food/fd3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\1130\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\1207\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27975" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="11.30학생식당 " sheetId="2" r:id="rId1"/>
-    <sheet name="11.30학생식당 - 영문" sheetId="1" r:id="rId2"/>
+    <sheet name="12.7학생식당 " sheetId="2" r:id="rId1"/>
+    <sheet name="12.7학생식당 - 영문" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_1_1" localSheetId="0">#REF!</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t xml:space="preserve">   weekly menu</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -211,63 +211,61 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Jjasai Debt Salad</t>
-  </si>
-  <si>
-    <t>2020.11.30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.12.01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.12.02</t>
-  </si>
-  <si>
-    <t>2020.12.03</t>
-  </si>
-  <si>
-    <t>2020.12.04</t>
-  </si>
-  <si>
-    <t>기사식당불백&amp;모듬쌈</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>스키야끼전골&amp;유부초밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>우삼겹된장찌개정식</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄탄면&amp;춘권튀김,주먹밥</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기날치알밥&amp;핫바</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈불닭덮밥&amp;요플레</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스피새우튀김오므라이스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>목살큐브스테이크&amp;잠발라야라이스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>보쌈정식</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기필라프&amp;로제파스타</t>
+    <t>Seasoned Cabbage</t>
+  </si>
+  <si>
+    <t>pickled radish salad</t>
+  </si>
+  <si>
+    <t>2020.12.08</t>
+  </si>
+  <si>
+    <t>2020.12.09</t>
+  </si>
+  <si>
+    <t>2020.12.10</t>
+  </si>
+  <si>
+    <t>2020.12.11</t>
+  </si>
+  <si>
+    <t>2020.12.07</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰소불고기전골</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>북성로불고기&amp;냄비우동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨텐더로제파스타</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스김치나베</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본식텐동&amp;음료</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>육회비빔밥&amp;미니소떡</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈큐브스테이크덮밥</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>차돌떡볶이&amp;모듬튀김,순대</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼겹강된장비빔밥</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -275,67 +273,63 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>*취나물밥&amp;양념장*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>참치김치찌개</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>청양홍합탕</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>순두부짬뽕국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>북어무국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>강된장찌개</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기잡채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜장소스</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍초불닭</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람의핫도그</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채카레볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>옥수수계란찜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>파채만두</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵그린빈스볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이양파생채</t>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치콩나물국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩가루배추국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯들깨탕</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑥갓어묵국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천닭갈비</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈함박</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추잡채&amp;꽃빵</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>너비아니육전&amp;파채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>불오징어떡볶음&amp;파채</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프무쌈말이&amp;땅콩소스</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫄면야채무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>백순대볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡채어묵볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란야채찜</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -343,7 +337,71 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>부추겉절이</t>
+    <t>상추겉절이</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>청경채무무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙주나물무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘쫑무침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*뼈없는감자탕*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*날치알김치볶음밥*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>*떡만둣국*</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부장국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자수제비국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>순두부계란국</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리새우미나리전&amp;양념장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>빽다방소시지핫도그</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물까스&amp;타르타르D</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>미브볼조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵은지돈불고기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>까르보떡볶이</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -351,287 +409,211 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>치커리양파생채</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>김구이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*치킨마요덮밥*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>*봉구스밥버거*</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>건새우아욱국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부장국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은콩나물국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란파국</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰육개장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어파채볶음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘새우브레드</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈등뼈간장찜</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>달고마떡볶이</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>네모두부적데리조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>쫄면야채무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜사이채무침</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛날소시지전&amp;케첩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬튀김&amp;양념장</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐어채조림</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로컬리&amp;초장/포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>미나리무생채/포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙주나물/포기김치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.11.30</t>
+    <t>알감자간장조림</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔멸치볶음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>온두부찜&amp;양념장</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리생채/석박지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유채겉절이/포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>실곤약야채무침/포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>아삭고추된장무침/포기김치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020.12.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.12.2</t>
-  </si>
-  <si>
-    <t>2020.12.3</t>
-  </si>
-  <si>
-    <t>2020.12.4</t>
-  </si>
-  <si>
-    <t>Korean Set Menu with Bulgogi </t>
-  </si>
-  <si>
-    <t>Cheese Spicy Chicken Rice with Rice</t>
-  </si>
-  <si>
-    <t>Tuna Kimchi Stew</t>
-  </si>
-  <si>
-    <t>Bulgogi Japchae</t>
-  </si>
-  <si>
-    <t>Seasoned Cabbage</t>
-  </si>
-  <si>
-    <t>Stir-fried squid and green onion salad</t>
-  </si>
-  <si>
-    <t>Spicy Cold Chewy Noodles</t>
-  </si>
-  <si>
-    <t>Sukiyaki jeongol</t>
-  </si>
-  <si>
-    <t>Omelet Rice with Deep-fried Shrimps</t>
-  </si>
-  <si>
-    <t>cheongyang mussel soup</t>
-  </si>
-  <si>
-    <t>Stir-fried Pork</t>
-  </si>
-  <si>
-    <t>steamed corn eggs</t>
-  </si>
-  <si>
-    <t>seasoned leek</t>
-  </si>
-  <si>
-    <t>Chicken mayo rice</t>
-  </si>
-  <si>
-    <t>Grilled Pork Belly Soybean Paste Stew Formula</t>
-  </si>
-  <si>
-    <t>Soft Tofu Jjamppong Soup</t>
-  </si>
-  <si>
-    <t>Black bean sauce</t>
-  </si>
-  <si>
-    <t>green onion dumplings</t>
-  </si>
-  <si>
-    <t>pickled radish salad</t>
-  </si>
-  <si>
-    <t>clear bean sprout soup</t>
-  </si>
-  <si>
-    <t>steamed pork backbone soy sauce</t>
-  </si>
-  <si>
-    <t>Sausage pancake</t>
-  </si>
-  <si>
-    <t>Tantan Noodles</t>
-  </si>
-  <si>
-    <t>Set Menu of Napa Wraps with Pork</t>
-  </si>
-  <si>
-    <t>Dried Pollack Soup</t>
-  </si>
-  <si>
-    <t>Hot and Spicy Chicken</t>
-  </si>
-  <si>
-    <t>Stir-fried Fish Cake Green Vince</t>
-  </si>
-  <si>
-    <t>chicory onion salad</t>
-  </si>
-  <si>
-    <t>Bongus Rice Burger</t>
-  </si>
-  <si>
-    <t>Dalgoma tteokbokki</t>
-  </si>
-  <si>
-    <t>assorted fries</t>
-  </si>
-  <si>
-    <t>Rice with Kimchi and Flying Fish Roe</t>
-  </si>
-  <si>
-    <t>Chwinamulbap</t>
-  </si>
-  <si>
-    <t>Soybean Paste Stew</t>
-  </si>
-  <si>
-    <t>Grilled Seaweed</t>
-  </si>
-  <si>
-    <t>Spicy Yukgaejang</t>
-  </si>
-  <si>
-    <t>stewed ratfish</t>
-  </si>
-  <si>
-    <t>Pork neck cube steak&amp;Zamballaya Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bulgogi Filaf&amp;Rose pasta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>2020.12.8</t>
+  </si>
+  <si>
+    <t>2020.12.9</t>
+  </si>
+  <si>
+    <t>beef bulgogi jeongol</t>
+  </si>
+  <si>
+    <t>Japanese style Tentong</t>
+  </si>
+  <si>
+    <t>perilla seaweed soup</t>
+  </si>
+  <si>
+    <t>Chuncheon-style Spicy Stir-fried Chicken</t>
+  </si>
+  <si>
+    <t>boneless potato soup</t>
+  </si>
+  <si>
+    <t>Barley shrimp-minarion</t>
+  </si>
+  <si>
+    <t>Carbo tteokbokki</t>
+  </si>
+  <si>
+    <t>Bukseongno Bulgogi</t>
+  </si>
+  <si>
+    <t>Beef Tartare Bibimbap</t>
+  </si>
+  <si>
+    <t>Kimchi bean sprout soup</t>
+  </si>
+  <si>
+    <t>cheese hamburg</t>
+  </si>
+  <si>
+    <t>jjolmyeon</t>
+  </si>
+  <si>
+    <t>lettuce leaf salad</t>
+  </si>
+  <si>
+    <t>Flying fish egg kimchi fried rice</t>
+  </si>
+  <si>
+    <t>sausage hot dog</t>
+  </si>
+  <si>
+    <t>Chicken Tender Rose Pasta</t>
+  </si>
+  <si>
+    <t>Cube steak over rice</t>
+  </si>
+  <si>
+    <t>bean powder cabbage soup</t>
+  </si>
+  <si>
+    <t>stir-fried meat and vegetables</t>
+  </si>
+  <si>
+    <t>stir-fried white sundae</t>
+  </si>
+  <si>
+    <t>shredded daikon</t>
+  </si>
+  <si>
+    <t>Potato Handpulled Dough Soup </t>
+  </si>
+  <si>
+    <t>Seafood cutlet</t>
+  </si>
+  <si>
+    <t>Braised egg potato soy sauce</t>
+  </si>
+  <si>
+    <t>Pork Cutlet Kimchi Nabe</t>
+  </si>
+  <si>
+    <t>Beef brisket tteokbokki</t>
+  </si>
+  <si>
+    <t>mushroom perilla soup</t>
+  </si>
+  <si>
+    <t> Marinated Grilled Beef Slices</t>
+  </si>
+  <si>
+    <t>Stir-fried Japchae Fish Cake</t>
+  </si>
+  <si>
+    <t>Seasoned bean sprouts</t>
+  </si>
+  <si>
+    <t>Sliced Rice Cake and Dumpling Soup</t>
+  </si>
+  <si>
+    <t>Meatball braised</t>
+  </si>
+  <si>
+    <t>Stir-fried Baby Anchovies</t>
+  </si>
+  <si>
+    <t>중화비빔밥&amp;계후</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese Bibimbap</t>
+  </si>
+  <si>
+    <t>Samgyeopsal-steamed equipment bibimbap</t>
+  </si>
+  <si>
+    <t>mugwort fish cake soup</t>
+  </si>
+  <si>
+    <t>Stir-fried Squid</t>
+  </si>
+  <si>
+    <t>Steamed egg and vegetables</t>
+  </si>
+  <si>
+    <t>young stem of garlic</t>
+  </si>
+  <si>
+    <t>Sundubu Egg Soup</t>
+  </si>
+  <si>
+    <t>Old Kimchi Pork Bulgogi</t>
+  </si>
+  <si>
+    <t>Braised tofu</t>
   </si>
   <si>
     <t>polished rice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>wind's hotdog</t>
+    <t>self-Ssammari</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Stir-fried Potato curry</t>
+    <t xml:space="preserve">kimchi </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seasoned cucumber and onion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">kimchi </t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">kimchi </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>dried prawn Curled Mallow Soup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tofu jangguk</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>egg soup</t>
+    <t>Seasoned Chicory/kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>corn shrimp bread</t>
+    <t>Fresh Kimchi/kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Grilled tofu</t>
+    <t>seasoned scallion/kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>broccoli/kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water parsley radish salad/kimchi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bean sprouts/kimchi</t>
+    <t>Spicy Stir-fried Soybean Paste Stew with Red Pepper/kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +624,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +889,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -961,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1308,10 +1296,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1322,9 +1347,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
@@ -1344,7 +1367,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,13 +1503,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1546,6 +1572,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,91 +1617,103 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2229,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2247,41 +2291,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2293,10 +2337,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2304,7 +2348,7 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -2325,9 +2369,9 @@
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>39</v>
@@ -2344,63 +2388,63 @@
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="92" t="s">
+      <c r="C7" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="D7" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="E7" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="F7" s="83" t="s">
         <v>47</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="87" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="96" t="s">
-        <v>54</v>
+      <c r="G9" s="88" t="s">
+        <v>53</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -2409,21 +2453,21 @@
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="98" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="E10" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="F10" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="G10" s="94" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>59</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -2432,21 +2476,21 @@
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="98" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="E11" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="F11" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="G11" s="96" t="s">
         <v>63</v>
-      </c>
-      <c r="G11" s="102" t="s">
-        <v>64</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="16"/>
@@ -2455,21 +2499,21 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="E12" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="F12" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="G12" s="98" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>69</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -2478,21 +2522,21 @@
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="98" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="E13" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="F13" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="G13" s="94" t="s">
         <v>73</v>
-      </c>
-      <c r="G13" s="101" t="s">
-        <v>74</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="16"/>
@@ -2501,21 +2545,21 @@
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>75</v>
+      <c r="B14" s="60"/>
+      <c r="C14" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="101" t="s">
+        <v>74</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="13"/>
@@ -2524,22 +2568,22 @@
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="88" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="20"/>
@@ -2549,21 +2593,21 @@
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="101" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="E16" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="F16" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="93" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="100" t="s">
-        <v>82</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="13"/>
@@ -2572,21 +2616,21 @@
     </row>
     <row r="17" spans="1:12" ht="20.25" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="101" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="F17" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="G17" s="93" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="100" t="s">
-        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="13"/>
@@ -2595,21 +2639,21 @@
     </row>
     <row r="18" spans="1:12" ht="21.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="101" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="F18" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="G18" s="93" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="100" t="s">
-        <v>92</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="13"/>
@@ -2618,21 +2662,21 @@
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" thickBot="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="106" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="106" t="s">
+      <c r="G19" s="100" t="s">
         <v>94</v>
-      </c>
-      <c r="F19" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="105" t="s">
-        <v>95</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="26"/>
@@ -2641,19 +2685,19 @@
     <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1">
       <c r="B23" s="13"/>
@@ -2665,8 +2709,8 @@
     <row r="24" spans="1:12">
       <c r="B24" s="13"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:12">
@@ -2828,8 +2872,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2845,41 +2889,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2891,10 +2935,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2902,7 +2946,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2923,71 +2967,71 @@
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="81" t="s">
+      <c r="C7" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="104" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>139</v>
+      <c r="B8" s="57"/>
+      <c r="C8" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2995,34 +3039,34 @@
     <row r="10" spans="1:11" ht="19.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>133</v>
+      <c r="C11" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>141</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
@@ -3030,20 +3074,20 @@
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="87" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="111" t="s">
         <v>134</v>
       </c>
       <c r="I12" s="13"/>
@@ -3052,21 +3096,21 @@
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>141</v>
+      <c r="B13" s="79"/>
+      <c r="C13" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>135</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -3074,21 +3118,21 @@
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="88" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>143</v>
+      <c r="D14" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>136</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="16"/>
@@ -3096,21 +3140,21 @@
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>135</v>
+      <c r="B15" s="79"/>
+      <c r="C15" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="112" t="s">
+        <v>137</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -3118,20 +3162,20 @@
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="90" t="s">
+      <c r="E16" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="13"/>
@@ -3140,23 +3184,23 @@
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="85" t="s">
-        <v>140</v>
+      <c r="C17" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="13"/>
@@ -3164,21 +3208,21 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="88" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>136</v>
+      <c r="E18" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>138</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="16"/>
@@ -3186,21 +3230,21 @@
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>150</v>
+      <c r="B19" s="81"/>
+      <c r="C19" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>139</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="13"/>
@@ -3208,21 +3252,21 @@
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>137</v>
+      <c r="B20" s="81"/>
+      <c r="C20" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>140</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="13"/>
@@ -3230,21 +3274,21 @@
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="89" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="83" t="s">
-        <v>153</v>
+      <c r="E21" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>150</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>36</v>
@@ -3252,7 +3296,7 @@
     </row>
     <row r="22" spans="1:11" ht="19.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="79"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="41" t="s">
         <v>8</v>
       </c>
@@ -3267,7 +3311,7 @@
     </row>
     <row r="23" spans="1:11" ht="20.25" hidden="1" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="64" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3287,7 +3331,7 @@
     </row>
     <row r="24" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="64"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
@@ -3305,7 +3349,7 @@
     </row>
     <row r="25" spans="1:11" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="64"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="10" t="s">
         <v>18</v>
       </c>
@@ -3323,7 +3367,7 @@
     </row>
     <row r="26" spans="1:11" ht="18" hidden="1" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="64"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
@@ -3341,7 +3385,7 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="64"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
@@ -3358,7 +3402,7 @@
     </row>
     <row r="28" spans="1:11" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
       <c r="E28" s="19"/>
@@ -3368,19 +3412,19 @@
     <row r="29" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
       <c r="B32" s="13"/>
@@ -3392,8 +3436,8 @@
     <row r="33" spans="2:6">
       <c r="B33" s="13"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="2:6">
@@ -3421,7 +3465,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="16"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="44"/>
     </row>
     <row r="38" spans="2:6">
@@ -3554,9 +3598,10 @@
     <hyperlink ref="F27" r:id="rId1" location="/entry/enko/9a2df76981ef447fa949ac8296afdb68" display="https://en.dict.naver.com/ - /entry/enko/9a2df76981ef447fa949ac8296afdb68"/>
     <hyperlink ref="D24" r:id="rId2" location="/entry/enko/aea797dad87d452f9f2d342cebfd264a" display="https://en.dict.naver.com/ - /entry/enko/aea797dad87d452f9f2d342cebfd264a"/>
     <hyperlink ref="E24" r:id="rId3" location="/entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1" display="https://en.dict.naver.com/ - /entry/koen/a3cfe773c3ee4620ac4ee4a9e62b5ae1"/>
+    <hyperlink ref="G15" r:id="rId4" location="/entry/enko/ee3ccbec32f04967adae1c14a5ac0dda" display="https://en.dict.naver.com/ - /entry/enko/ee3ccbec32f04967adae1c14a5ac0dda"/>
   </hyperlinks>
   <pageMargins left="0.04" right="0.04" top="0.35" bottom="0.35" header="0.31" footer="0"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>